--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -1038,25 +1038,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6566523605150214</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L17">
         <v>153</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1194,25 +1194,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5335365853658537</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L23">
         <v>175</v>
       </c>
       <c r="M23">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="10:17">
